--- a/new.xlsx
+++ b/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>Question</t>
   </si>
@@ -25,277 +25,207 @@
     <t>Prediction Probability</t>
   </si>
   <si>
+    <t>is it possible to have a call with your executives sometime?</t>
+  </si>
+  <si>
+    <t>do you provide scholarship for bdva?</t>
+  </si>
+  <si>
+    <t>can you provide placement report for gfmb program?</t>
+  </si>
+  <si>
+    <t>when does the next batch start of dba?</t>
+  </si>
+  <si>
+    <t>can i know the avg. placement package of rm?</t>
+  </si>
+  <si>
+    <t>what is the amount towards registration for bbc?</t>
+  </si>
+  <si>
+    <t>what is duration of the dba program?</t>
+  </si>
+  <si>
+    <t>may i know the requirement for the scholarships for emba program?</t>
+  </si>
+  <si>
+    <t>what is the admission procedure for gmba?</t>
+  </si>
+  <si>
+    <t>is loan given?</t>
+  </si>
+  <si>
+    <t>can you arrange a call with a counsellor?</t>
+  </si>
+  <si>
+    <t>is there any scholarship for the bba course?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement as part of mgluxm program ?</t>
+  </si>
+  <si>
+    <t>can you provide placement records of bdva?</t>
+  </si>
+  <si>
+    <t>scholarships criteria for mgb program?</t>
+  </si>
+  <si>
+    <t>what is the total amount to be paid for registration of the gfmb course?</t>
+  </si>
+  <si>
+    <t>can i know the avg. placement package of bdva?</t>
+  </si>
+  <si>
+    <t>are placements provided ?</t>
+  </si>
+  <si>
+    <t>do you provide scholarship for mgb?</t>
+  </si>
+  <si>
+    <t>what is the total amount to be paid for registration of the fintech  course?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement in mgluxm?</t>
+  </si>
+  <si>
+    <t>is student accommodation compulsory or can i organise my own housing?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers i can expect for the bec course?</t>
+  </si>
+  <si>
+    <t>what is the eligibility criteria for getting admission in dmm?</t>
+  </si>
+  <si>
+    <t>any placement opportunities will be provided ?</t>
+  </si>
+  <si>
+    <t>is there any entrance exam even for the bba course?</t>
+  </si>
+  <si>
+    <t>do they provide laptop?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers given for rm?</t>
+  </si>
+  <si>
+    <t>what is the admission procedure for bec?</t>
+  </si>
+  <si>
+    <t>can i know about its placement avg. package?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers given for bdva?</t>
+  </si>
+  <si>
+    <t>what is the total amount to be paid for registration of the bba course?</t>
+  </si>
+  <si>
+    <t>do you have placement report for dmm program?</t>
+  </si>
+  <si>
+    <t>how long is the duration of the bec program ?</t>
+  </si>
+  <si>
     <t>what about placement benefit?</t>
   </si>
   <si>
-    <t>do they provide laptop?</t>
-  </si>
-  <si>
-    <t>is loan given?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for bba program?</t>
-  </si>
-  <si>
-    <t>what is duration of bdva course?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for fintech  program?</t>
-  </si>
-  <si>
-    <t>are there placements in emba?</t>
-  </si>
-  <si>
-    <t>what is duration of dmm course?</t>
-  </si>
-  <si>
     <t>do you get loan?</t>
   </si>
   <si>
-    <t>what is duration of bbc course?</t>
-  </si>
-  <si>
-    <t>what is the eligibility criteria for getting admission in mgluxm?</t>
-  </si>
-  <si>
-    <t>how long is the duration of the emba program ?</t>
-  </si>
-  <si>
-    <t>how are placement in mgluxm program?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for mgb program?</t>
-  </si>
-  <si>
-    <t>duration of bbc?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for gmba  program?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of dmm?</t>
-  </si>
-  <si>
-    <t>how are placement in emba program?</t>
-  </si>
-  <si>
-    <t>how long is the duration of the bec program ?</t>
-  </si>
-  <si>
-    <t>which campus is bbc offered in?</t>
-  </si>
-  <si>
-    <t>what is duration of gfmb course?</t>
-  </si>
-  <si>
-    <t>are placements provided ?</t>
-  </si>
-  <si>
-    <t>is there any entrance exam even for the fintech  course?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for dba program?</t>
-  </si>
-  <si>
-    <t>what is fees of mgb course?</t>
-  </si>
-  <si>
-    <t>what is the procedure for getting in the bdva program?</t>
-  </si>
-  <si>
-    <t>what is fees  of bec course?</t>
-  </si>
-  <si>
-    <t>do they provide us with a laptop?</t>
-  </si>
-  <si>
-    <t>can you arrange a call with a counsellor?</t>
-  </si>
-  <si>
-    <t>what is the admission procedure for mgluxm?</t>
+    <t>when is the next intake for bba?</t>
+  </si>
+  <si>
+    <t>how are placement in dmm program?</t>
+  </si>
+  <si>
+    <t>is there placements in dba program?</t>
+  </si>
+  <si>
+    <t>can you provide placement report for mgluxm program?</t>
+  </si>
+  <si>
+    <t>what is the procedure for getting in the gfmb program?</t>
   </si>
   <si>
     <t>when does the next batch start of bec?</t>
   </si>
   <si>
-    <t>when is the next batch starting for gfmb?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of dba?</t>
-  </si>
-  <si>
-    <t>when is the next batch starting for fintech?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of gfmb?</t>
-  </si>
-  <si>
-    <t>how are placement in bbc?</t>
-  </si>
-  <si>
-    <t>can you provide placement report for gmba program?</t>
+    <t>can you share your placement records of dmm program ?</t>
+  </si>
+  <si>
+    <t>what is duration of fintech  course?</t>
+  </si>
+  <si>
+    <t>scholarships criteria for mgluxm program?</t>
+  </si>
+  <si>
+    <t>how long is the duration of bbc?</t>
+  </si>
+  <si>
+    <t>is there any scholarship for the dba course?</t>
+  </si>
+  <si>
+    <t>is there any scholarship for the bbc course?</t>
+  </si>
+  <si>
+    <t>is there placements in mgb course?</t>
+  </si>
+  <si>
+    <t>duration of gfmb?</t>
+  </si>
+  <si>
+    <t>how long is the duration of rm?</t>
+  </si>
+  <si>
+    <t>can you provide placement records of dba?</t>
+  </si>
+  <si>
+    <t>can you provide placement records of mgluxm?</t>
+  </si>
+  <si>
+    <t>may i know the requirement for the scholarships for bec program?</t>
+  </si>
+  <si>
+    <t>are there placements in bba?</t>
   </si>
   <si>
     <t>are there any scholarships, waivers given for bba?</t>
   </si>
   <si>
-    <t>can you provide placement report for bba program?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement in gmba?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement in bbc?</t>
-  </si>
-  <si>
-    <t>is there any entrance exam even for the gmba  course?</t>
-  </si>
-  <si>
-    <t>what is the admission procedure for bbc?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of dba program ?</t>
-  </si>
-  <si>
-    <t>what is fees of bba course?</t>
-  </si>
-  <si>
-    <t>fees of emba?</t>
-  </si>
-  <si>
-    <t>can you provide placement records of bba?</t>
-  </si>
-  <si>
-    <t>can i know the avg. placement package of bec?</t>
-  </si>
-  <si>
-    <t>how are placement in dba program?</t>
-  </si>
-  <si>
-    <t>do you provide scholarship for bba?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for gfmb program?</t>
-  </si>
-  <si>
-    <t>how are placement in bec program?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for rm program?</t>
-  </si>
-  <si>
-    <t>when does the next batch start of bba?</t>
-  </si>
-  <si>
-    <t>how are placement in gmba  program?</t>
-  </si>
-  <si>
-    <t>do you have placement report for mgb program?</t>
-  </si>
-  <si>
-    <t>is there any entrance exam even for the bbc course?</t>
-  </si>
-  <si>
-    <t>We provide complete assistance for the placements</t>
-  </si>
-  <si>
-    <t>No, laptop is not provided by us.</t>
+    <t>when is the next intake for emba?</t>
+  </si>
+  <si>
+    <t>Sure we will arrange a call from one of the counsellors who can help you better regarding this.</t>
+  </si>
+  <si>
+    <t>There will be a merit based scholarship for students based on their qualification, work experience and performance in the aptitude test and personal interview.</t>
+  </si>
+  <si>
+    <t>You can have a word with Ms. Tejal Dhulla, M: 9987081818|Email id tejal.dhulla@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>I would like to inform you that we have our Director- Professional PG Programs Dr. Raja Roy Choudhury, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no 8879489681/8655502525, email id raja.royc@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can have a word with Mr. Ashutosh Kulkarni, M: +91 9702896668, email id ashutosh.kulkarni@spjain.org. He handles all applications for Retail Management. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can have a word with Mr. Mahesh Sharma, M: +91-7875874565  | Email id mahesh.sharma@spjain.org. He handles all the application for the Bachelor Of Business Communication. </t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>To be eligible for the program, candidate must have:-
+- A bachelors degree
+- 3+ years of work experience
+- English Language Proficiency (ELPS may be required)
+For more details on the same, refer to below link:-
+https://www.spjain.org/programs/postgraduate/gmba/admissions?hsCtaTracking=45b73a0c-b5c7-489c-a344-cc43887ed4d2%7C7baf2fc0-cbfc-449f-8011-1614d52bd9be</t>
   </si>
   <si>
     <t>Yes ,we  have tied up with certain banks who can grant you loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholarships are awarded for EMBA based on the following:
-- Academic performance
-- Financial background
-- Work experience
-- Leadership, communication and problem-solving skills
-</t>
-  </si>
-  <si>
-    <t>6 months</t>
-  </si>
-  <si>
-    <t>There will be a merit based scholarship for students based on their qualification, work experience and performance in the aptitude test and personal interview.</t>
-  </si>
-  <si>
-    <t>3 year full time program</t>
-  </si>
-  <si>
-    <t>The program is ideal for: 
-- Young graduates with at least a Bachelor’s degree of three years from recognized university in India or abroad
-- Participants who have an aptitude and appetite to work in the luxury space
-- Participants with excellent written and spoken communication skills (proficiency of the English language is a must), leadership and managerial skills, and the   willingness to meet the demands of a rigorous Master’s degree.</t>
-  </si>
-  <si>
-    <t>18 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Ms. Neha Sikri, M: +91- 9867633315 | Email id Neha.sikri@spjain.org. She handles all the application for the GLuxM. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next intake is of July-17 for the DMM program. Applications are open for the same. </t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Assistant Manager- Professional Programs for EMBA Ms. Nikita Marwaha , based out of our Mumbai Campus. Ms. Nikita handles all applications for the EMBA program. You can get in touch with her directly. Her contact details are tel no 8879866774 email id nikita.marwaha@spjain.org. She would be your point of contact as far as EMBA @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>The total fees for the program will be INR 11,67,975 (Plus applicable service tax)</t>
-  </si>
-  <si>
-    <t>1 year full time program</t>
-  </si>
-  <si>
-    <t>Appear for further evaluation comprising written tests (test of reasoning, numerical ability, english comprehension), followed by 2 round of interviews to understand the statement of purpose of the student to join the program</t>
-  </si>
-  <si>
-    <t>There will be a merit based scholarship for applicants based on their qualification, work experience, overall profile and performance in the DBA admission interview.</t>
-  </si>
-  <si>
-    <t>The total fees of the program is USD 43,825 for the Sept-17 intake. And USD 44,575 for the Jan-18 intake.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Rakesh Shetty, M: +91- 82912 87131 | Email id rakesh.shetty@spjain.org. He handles all the application for the Big Data and Visual Analytics Course. </t>
-  </si>
-  <si>
-    <t>The total fees for the program will be INR 11,90,975 (Plus applicable service tax)</t>
-  </si>
-  <si>
-    <t>Sure we will arrange a call from one of the counsellors who can help you better regarding this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To apply for the program please:
-1. Submit an online application form along with the following supporting documents like:
-    - CV/Resume
-    - University degree transcripts
-    - Passport copy and photo
-3. The Admission Committee will shortlist candidates based on several criteria, including past academic performance, work experience (if any) and other information provided to us. Normally, this process takes up to 5 working days.
-4. Shortlisted candidates will be called for further evaluation (Evaluation Fee of Euros 100 to be paid before the evaluation). 
-5. A verification process will be conducted by MIP Politecnico for candidates who have been selected for admission to the program. 
-6. On successful verification, an offer is made within 10 working days. 
-7. Candidates must confirm their acceptance within 2 weeks of receiving the offer by paying the Registration Fee. 
-</t>
-  </si>
-  <si>
-    <t>The next BEC batch will commence on September 2017</t>
-  </si>
-  <si>
-    <t>The next intake is of August-17. Applications are open for the same. Kindly go the following link to apply: https://docs.google.com/forms/d/e/1FAIpQLScjq_wNNNovZ4QV9gVEKv-33mlzC2DBxeBHJGbQs42VfFU9Pw/viewform?c=0andw=1and__hssc=190427892.2.1495486494703and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495476073256.1495486494703.23and__hsfp=1107886181andhsCtaTracking=b4b13990-4ef8-4e30-a8a3-329571ad8273%7C42a77ae5-2e66-4d05-af10-759ecf60fb66</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Director- Professional PG Programs Dr. Raja Roy Choudhury, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no 8879489681/8655502525, email id raja.royc@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>The next intake is of June-17. Applications are open for the same. Kindly go the following link to apply: https://www.spjain.org/programs/professional/financial-technology/apply?hsCtaTracking=4451c9be-d849-43cd-84fa-5bf595971161%7Cfa02afbd-b2a9-478b-b4b9-ad7af311b47a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Mahesh Sharma, M: +91-7875874565  | Email id mahesh.sharma@spjain.org. He handles all the application for the Bachelor Of Business Communication. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full-time placement updates from the batches of 2016 are provided below:
--The Intake witnessed 2.5-fold jump in average post-GMBA salaries as compared with the pre-GMBA salaries
--Average CTC: USD 29,233
--Top recruiters of the season were Microsoft, Unilever, TCS, Cognizant, Wipro, ITC Infotech, HP, HCL, Genpact, Deloitte, Barclays, EandY, Dell, Landmark Group, MandM, Heinz, Dunia Finance, Abbott, Maersk and KPMG. For placement report, please click on  https://cdn2.hubspot.net/hubfs/1969827/GMBA-Placement-Report.pdf </t>
   </si>
   <si>
     <t>Scholarships are awarded based on outstanding academic achievement:
@@ -309,47 +239,82 @@
 - SPJET score above 90th percentile</t>
   </si>
   <si>
-    <t xml:space="preserve">You can have a word with Mr. Ranjeet Singh, M: +91- 81412 97131 | Email id ranjeet.singh@spjain.org. He handles all the application for the Bachelor Of Business Administration. . </t>
-  </si>
-  <si>
-    <t>SP Jain requires candidates to take one of the following aptitude tests*: GMAT, CAT or (SP Jain Aptitude Test).
-Candidates may apply even if they have not yet taken the aptitude test, or if their scores are pending. However, candidates will not be shortlisted for evaluation until they submit final test scores. SP Jain accepts the best score from any of these tests: 
-GMAT score of 650 (tested on or after August 1, 2014 )
-CAT score in the 80th percentile (tested in 2015 or 2016 results declared in January 2016 or January 2017) 
-SPJAT score in the 80th percentile (tested on or after August 1, 2015 )</t>
-  </si>
-  <si>
-    <t>Please refer to the following link for information on the same: https://www.spjain.org/programs/undergraduate/bbc/admissions?hsCtaTracking=472995f8-e036-4aba-87cf-11b51f03bccc%7Cbf9da8cc-2723-4f1f-b398-23bc348eb077</t>
-  </si>
-  <si>
-    <t>The total fees for the program will be INR 12,16,725 (Plus applicable service tax)</t>
-  </si>
-  <si>
-    <t>The total fees for the program will be INR 1,330,000 for EMBA.</t>
+    <t>We provide complete assistance for the placements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can have a word with Mr. Rakesh Shetty, M: +91- 82912 87131 | Email id rakesh.shetty@spjain.org. He handles all the application for the Big Data and Visual Analytics Course. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholarships are awarded for EMBA based on the following:
+- Academic performance
+- Financial background
+- Work experience
+- Leadership, communication and problem-solving skills
+</t>
+  </si>
+  <si>
+    <t>Yes, scholarship is provided to deserving candidates. Kindly refer to following link for complete details on scholarship of PG programs: https://www.spjain.org/programs/postgraduate/scholarships?hsCtaTracking=e66d11a2-8829-4999-91da-2ce447065ed1%7C3b909ce1-4ee9-40f5-89ee-dcc84849fb9d</t>
+  </si>
+  <si>
+    <t>I would like to inform you that we have our Admissions Manager Mr.Nikhil Gore , based out of Mumbai.  He handles all applications for Fintech  . You can get in touch with him directly. His contact details are tel no +91 9445431213, email id nikhil.gore@spjain.org. He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>Student accommodation is not compulsory. Students can opt to live off-campus on their own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicants must have:
+A Bachelor degree or above from a recognised, accredited higher education institution
+0-3 years of experience
+Excellent communication skills and working knowledge of Microsoft Excel is a must
+A reasonable interest to pursue a career in Digital Marketing; good presence on social media sites </t>
+  </si>
+  <si>
+    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
+  </si>
+  <si>
+    <t>No, laptop is not provided by us.</t>
+  </si>
+  <si>
+    <t>Students must have completed high school/secondary school/junior college or some equivalent form of secondary education and placed in the top 25% of their class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-time placement updates from the batches of 2016 are provided below:
+-The Intake witnessed 2.5-fold jump in average post-GMBA salaries as compared with the pre-GMBA salaries
+-Average CTC: USD 29,233
+-Top recruiters of the season were Microsoft, Unilever, TCS, Cognizant, Wipro, ITC Infotech, HP, HCL, Genpact, Deloitte, Barclays, EandY, Dell, Landmark Group, MandM, Heinz, Dunia Finance, Abbott, Maersk and KPMG. For placement report, please click on  https://cdn2.hubspot.net/hubfs/1969827/GMBA-Placement-Report.pdf </t>
   </si>
   <si>
     <t xml:space="preserve">You can have a word with Mr. Ranjeet Singh, M: +91- 81412 97131 | Email id ranjeet.singh@spjain.org. He handles all the application for the Bachelor Of Business Administration. </t>
   </si>
   <si>
-    <t>You can have a word with Mr. Rupin Pahwa, M: +91-9687412321| Email id rupin.pahwa@spjain.org.</t>
-  </si>
-  <si>
-    <t>You can have a word with Ms. Tejal Dhulla, M: 9987081818|Email id tejal.dhulla@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
+    <t>I would like to inform you that we have our Admissions Manager Mr. Ashutosh Kulkarni, based out of Mumbai.  He handles all applications for Digital Marketing and Metrics . You can get in touch with him directly. His contact details are tel no +91 9702896668, email id ashutosh.kulkarni@spjain.org . He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>3 year full time program</t>
   </si>
   <si>
     <t>The next BBA batch will commence on September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Full-time placement updates from the Intakes of 2015 that graduated in 2016/17 are provided below:
-- Over 94% of students received internship offers from companies based in Middle East and Southeast Asia. 
-- Average CTC: USD 25,485
-- Top recruiters of the season were Credit Agricole, Deloitte, Genpact,  Smytten,  Fintelix, UBS, Enhance, Bayt.com, Agility Logistics, Al Seer group, Stanley Black and Decker and Kuehne + Nagel. 
-You can download the placement report of 2014-17 batch at below link:
-http://cdn2.hubspot.net/hubfs/1969827/MGB-Placement-Report-of-May14-Intake.pdf?__hssc=190427892.5.1495346778271and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495333324545.1495346778271.15and__hsfp=1107886181andhsCtaTracking=8ddebeec-ee0a-4cbd-8402-8969a656d200%7C55049e8f-8c08-4083-a8e3-0fbdce42ea71
-</t>
-  </si>
-  <si>
-    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
+    <t xml:space="preserve">You can have a word with Ms. Neha Sikri, M: +91- 9867633315 | Email id Neha.sikri@spjain.org. She handles all the application for the GLuxM. </t>
+  </si>
+  <si>
+    <t>The next BEC batch will commence on September 2017</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>There will be a merit based scholarship for applicants based on their qualification, work experience, overall profile and performance in the DBA admission interview.</t>
+  </si>
+  <si>
+    <t>12 months</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t>The next intake of MGB is of July 2017. Applications are open for the same.</t>
   </si>
 </sst>
 </file>
@@ -726,7 +691,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>459</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -735,12 +700,12 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>0.9195495839687726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>516</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -749,12 +714,12 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -763,12 +728,12 @@
         <v>62</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>338</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -777,12 +742,12 @@
         <v>63</v>
       </c>
       <c r="D5">
-        <v>0.377</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -791,12 +756,12 @@
         <v>64</v>
       </c>
       <c r="D6">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>130</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -805,306 +770,306 @@
         <v>65</v>
       </c>
       <c r="D7">
-        <v>0.455</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>500</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>0.89</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>0.537</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>44</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>68</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>0.236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>432</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>0.46</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>0.782</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>213</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>0.392</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>276</v>
+        <v>426</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>0.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>598</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>0.251</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>236</v>
+        <v>470</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>0.856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>101</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>0.486</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>624</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>0.163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>435</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>0.444</v>
+        <v>0.7518636363636364</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>0.419</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>534</v>
+        <v>303</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>0.38</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>0.369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1113,12 +1078,12 @@
         <v>77</v>
       </c>
       <c r="D29">
-        <v>0.219</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>90</v>
+        <v>537</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -1127,12 +1092,12 @@
         <v>78</v>
       </c>
       <c r="D30">
-        <v>0.367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>41</v>
+        <v>464</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -1141,12 +1106,12 @@
         <v>61</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1155,12 +1120,12 @@
         <v>79</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1169,455 +1134,455 @@
         <v>80</v>
       </c>
       <c r="D33">
-        <v>0.167</v>
+        <v>0.2590711760461759</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>588</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>0.5639999999999999</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>582</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>82</v>
       </c>
       <c r="D36">
-        <v>0.532</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>607</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>83</v>
       </c>
       <c r="D37">
-        <v>0.317</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D38">
-        <v>0.513</v>
+        <v>0.9163272781125859</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>608</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D39">
-        <v>0.297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>87</v>
+        <v>560</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40">
-        <v>0.586274603174603</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>552</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>556</v>
+        <v>430</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>0.806</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>0.52</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>339</v>
+        <v>588</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45">
-        <v>0.611</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>549</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D46">
-        <v>0.7468054298642534</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>0.7509230769230769</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>266</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D48">
-        <v>0.395</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D49">
-        <v>0.416</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>251</v>
+        <v>554</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>0.598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D51">
-        <v>0.397</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>497</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D52">
-        <v>0.319</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>0.611</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D54">
-        <v>0.470825649350649</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>536</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D55">
-        <v>0.851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>0.391</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D57">
-        <v>0.509</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D58">
-        <v>0.4713952380952382</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D59">
-        <v>0.391</v>
+        <v>0.9163272781125859</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>586</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>0.576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>349</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D63">
-        <v>0.8120000000000001</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>214</v>
+        <v>567</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D64">
-        <v>0.846</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D65">
-        <v>0.429</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -25,207 +25,223 @@
     <t>Prediction Probability</t>
   </si>
   <si>
-    <t>is it possible to have a call with your executives sometime?</t>
+    <t>scholarships criteria for rm program?</t>
+  </si>
+  <si>
+    <t>when does the next batch start of gfmb?</t>
+  </si>
+  <si>
+    <t>what is the admission procedure for bbc?</t>
+  </si>
+  <si>
+    <t>what is fees of gmba  course?</t>
+  </si>
+  <si>
+    <t>how are placement in bbc?</t>
+  </si>
+  <si>
+    <t>when is the next batch starting for bdva?</t>
+  </si>
+  <si>
+    <t>what about placement benefit?</t>
+  </si>
+  <si>
+    <t>does sp jain require students to take an english language test?</t>
+  </si>
+  <si>
+    <t>any placement opportunities will be provided ?</t>
+  </si>
+  <si>
+    <t>what is fees of mgb course?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement in bba?</t>
+  </si>
+  <si>
+    <t>do you have placement report for mgb program?</t>
+  </si>
+  <si>
+    <t>how are placement in gmba  program?</t>
+  </si>
+  <si>
+    <t>do you provide scholarship for bec?</t>
+  </si>
+  <si>
+    <t>is there placements in mgb course?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of bba program ?</t>
+  </si>
+  <si>
+    <t>what is the eligibility criteria for getting admission in bbc?</t>
+  </si>
+  <si>
+    <t>are placements provided ?</t>
+  </si>
+  <si>
+    <t>do you get loan?</t>
+  </si>
+  <si>
+    <t>is there any entrance exam even for the bba course?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of gfmb program ?</t>
+  </si>
+  <si>
+    <t>is loan given?</t>
+  </si>
+  <si>
+    <t>can you arrange a call with a counsellor?</t>
+  </si>
+  <si>
+    <t>duration of bdva?</t>
+  </si>
+  <si>
+    <t>which campus is mgb offered in?</t>
+  </si>
+  <si>
+    <t>when is the next intake for dba?</t>
+  </si>
+  <si>
+    <t>how long is the duration of bec?</t>
+  </si>
+  <si>
+    <t>can you provide placement report for dmm program?</t>
+  </si>
+  <si>
+    <t>what is duration of bba course?</t>
+  </si>
+  <si>
+    <t>how long is the duration of gmba?</t>
+  </si>
+  <si>
+    <t>how are placement in emba program?</t>
+  </si>
+  <si>
+    <t>can you provide placement records of dba?</t>
+  </si>
+  <si>
+    <t>can you tell me about mba?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers given for rm?</t>
+  </si>
+  <si>
+    <t>can i know the avg. placement package of gfmb?</t>
+  </si>
+  <si>
+    <t>when does the new batch start of bdva?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement in bdva?</t>
+  </si>
+  <si>
+    <t>which undergraduate courses do you offer?</t>
+  </si>
+  <si>
+    <t>how are placement in mgluxm program?</t>
+  </si>
+  <si>
+    <t>how long is the duration of the gfmb program ?</t>
+  </si>
+  <si>
+    <t>do they provide laptop?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers i can expect for the fintech  course?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of emba program ?</t>
+  </si>
+  <si>
+    <t>may i know the requirement for the scholarships for emba program?</t>
+  </si>
+  <si>
+    <t>when does the new batch start of dmm?</t>
+  </si>
+  <si>
+    <t>what is the admission procedure for emba?</t>
+  </si>
+  <si>
+    <t>how long is the duration of the fintech  program ?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of bec program ?</t>
+  </si>
+  <si>
+    <t>what is the criteria for getting admission in dba?</t>
   </si>
   <si>
     <t>do you provide scholarship for bdva?</t>
   </si>
   <si>
-    <t>can you provide placement report for gfmb program?</t>
-  </si>
-  <si>
-    <t>when does the next batch start of dba?</t>
-  </si>
-  <si>
-    <t>can i know the avg. placement package of rm?</t>
-  </si>
-  <si>
-    <t>what is the amount towards registration for bbc?</t>
-  </si>
-  <si>
-    <t>what is duration of the dba program?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for emba program?</t>
-  </si>
-  <si>
-    <t>what is the admission procedure for gmba?</t>
-  </si>
-  <si>
-    <t>is loan given?</t>
-  </si>
-  <si>
-    <t>can you arrange a call with a counsellor?</t>
-  </si>
-  <si>
-    <t>is there any scholarship for the bba course?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement as part of mgluxm program ?</t>
-  </si>
-  <si>
-    <t>can you provide placement records of bdva?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for mgb program?</t>
-  </si>
-  <si>
-    <t>what is the total amount to be paid for registration of the gfmb course?</t>
-  </si>
-  <si>
-    <t>can i know the avg. placement package of bdva?</t>
-  </si>
-  <si>
-    <t>are placements provided ?</t>
-  </si>
-  <si>
-    <t>do you provide scholarship for mgb?</t>
-  </si>
-  <si>
-    <t>what is the total amount to be paid for registration of the fintech  course?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement in mgluxm?</t>
-  </si>
-  <si>
-    <t>is student accommodation compulsory or can i organise my own housing?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers i can expect for the bec course?</t>
-  </si>
-  <si>
-    <t>what is the eligibility criteria for getting admission in dmm?</t>
-  </si>
-  <si>
-    <t>any placement opportunities will be provided ?</t>
-  </si>
-  <si>
-    <t>is there any entrance exam even for the bba course?</t>
-  </si>
-  <si>
-    <t>do they provide laptop?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers given for rm?</t>
-  </si>
-  <si>
-    <t>what is the admission procedure for bec?</t>
-  </si>
-  <si>
-    <t>can i know about its placement avg. package?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers given for bdva?</t>
-  </si>
-  <si>
-    <t>what is the total amount to be paid for registration of the bba course?</t>
-  </si>
-  <si>
-    <t>do you have placement report for dmm program?</t>
-  </si>
-  <si>
-    <t>how long is the duration of the bec program ?</t>
-  </si>
-  <si>
-    <t>what about placement benefit?</t>
-  </si>
-  <si>
-    <t>do you get loan?</t>
+    <t>can you share your placement records of dmm program ?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of fintech  program ?</t>
+  </si>
+  <si>
+    <t>what is the total amount to be paid for registration of the mgb course?</t>
   </si>
   <si>
     <t>when is the next intake for bba?</t>
   </si>
   <si>
-    <t>how are placement in dmm program?</t>
-  </si>
-  <si>
-    <t>is there placements in dba program?</t>
-  </si>
-  <si>
-    <t>can you provide placement report for mgluxm program?</t>
-  </si>
-  <si>
-    <t>what is the procedure for getting in the gfmb program?</t>
-  </si>
-  <si>
-    <t>when does the next batch start of bec?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of dmm program ?</t>
-  </si>
-  <si>
-    <t>what is duration of fintech  course?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for mgluxm program?</t>
-  </si>
-  <si>
-    <t>how long is the duration of bbc?</t>
-  </si>
-  <si>
-    <t>is there any scholarship for the dba course?</t>
-  </si>
-  <si>
-    <t>is there any scholarship for the bbc course?</t>
-  </si>
-  <si>
-    <t>is there placements in mgb course?</t>
-  </si>
-  <si>
-    <t>duration of gfmb?</t>
-  </si>
-  <si>
-    <t>how long is the duration of rm?</t>
-  </si>
-  <si>
-    <t>can you provide placement records of dba?</t>
-  </si>
-  <si>
-    <t>can you provide placement records of mgluxm?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for bec program?</t>
-  </si>
-  <si>
-    <t>are there placements in bba?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers given for bba?</t>
+    <t>when does the new batch start of rm?</t>
+  </si>
+  <si>
+    <t>can you provide placement report for rm program?</t>
+  </si>
+  <si>
+    <t>what is duration of the mgluxm program?</t>
   </si>
   <si>
     <t>when is the next intake for emba?</t>
   </si>
   <si>
-    <t>Sure we will arrange a call from one of the counsellors who can help you better regarding this.</t>
+    <t>how long is the duration of the emba program ?</t>
   </si>
   <si>
     <t>There will be a merit based scholarship for students based on their qualification, work experience and performance in the aptitude test and personal interview.</t>
   </si>
   <si>
-    <t>You can have a word with Ms. Tejal Dhulla, M: 9987081818|Email id tejal.dhulla@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Director- Professional PG Programs Dr. Raja Roy Choudhury, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no 8879489681/8655502525, email id raja.royc@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Ashutosh Kulkarni, M: +91 9702896668, email id ashutosh.kulkarni@spjain.org. He handles all applications for Retail Management. </t>
+    <t>The next intake is of August-17. Applications are open for the same. Kindly go the following link to apply: https://docs.google.com/forms/d/e/1FAIpQLScjq_wNNNovZ4QV9gVEKv-33mlzC2DBxeBHJGbQs42VfFU9Pw/viewform?c=0andw=1and__hssc=190427892.2.1495486494703and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495476073256.1495486494703.23and__hsfp=1107886181andhsCtaTracking=b4b13990-4ef8-4e30-a8a3-329571ad8273%7C42a77ae5-2e66-4d05-af10-759ecf60fb66</t>
+  </si>
+  <si>
+    <t>Please refer to the following link for information on the same: https://www.spjain.org/programs/undergraduate/bbc/admissions?hsCtaTracking=472995f8-e036-4aba-87cf-11b51f03bccc%7Cbf9da8cc-2723-4f1f-b398-23bc348eb077</t>
+  </si>
+  <si>
+    <t>Approx INR 32,00,000 (plus applicable service taxes)</t>
   </si>
   <si>
     <t xml:space="preserve">You can have a word with Mr. Mahesh Sharma, M: +91-7875874565  | Email id mahesh.sharma@spjain.org. He handles all the application for the Bachelor Of Business Communication. </t>
   </si>
   <si>
-    <t>3 years</t>
-  </si>
-  <si>
-    <t>To be eligible for the program, candidate must have:-
-- A bachelors degree
-- 3+ years of work experience
-- English Language Proficiency (ELPS may be required)
-For more details on the same, refer to below link:-
-https://www.spjain.org/programs/postgraduate/gmba/admissions?hsCtaTracking=45b73a0c-b5c7-489c-a344-cc43887ed4d2%7C7baf2fc0-cbfc-449f-8011-1614d52bd9be</t>
-  </si>
-  <si>
-    <t>Yes ,we  have tied up with certain banks who can grant you loan</t>
+    <t>The next intake is of July-17 for Big Data and Visual Analytics program. Applications are open for the same. K</t>
+  </si>
+  <si>
+    <t>We provide complete assistance for the placements</t>
+  </si>
+  <si>
+    <t>While SP Jain does not require students to take an English language test at the time of admission, it is a mandatory requirement for an Australian student visa to have an English language score. Full details can be found on the Australian Government Department of Immigration and Border Protection website.</t>
+  </si>
+  <si>
+    <t>The total fees of the program is USD 43,825 for the Sept-17 intake. And USD 44,575 for the Jan-18 intake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-time placement updates from the Intakes of 2015 that graduated in 2016/17 are provided below:
+- Over 94% of students received internship offers from companies based in Middle East and Southeast Asia. 
+- Average CTC: USD 25,485
+- Top recruiters of the season were Credit Agricole, Deloitte, Genpact,  Smytten,  Fintelix, UBS, Enhance, Bayt.com, Agility Logistics, Al Seer group, Stanley Black and Decker and Kuehne + Nagel. 
+You can download the placement report of 2014-17 batch at below link:
+http://cdn2.hubspot.net/hubfs/1969827/MGB-Placement-Report-of-May14-Intake.pdf?__hssc=190427892.5.1495346778271and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495333324545.1495346778271.15and__hsfp=1107886181andhsCtaTracking=8ddebeec-ee0a-4cbd-8402-8969a656d200%7C55049e8f-8c08-4083-a8e3-0fbdce42ea71
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-time placement updates from the batches of 2016 are provided below:
+-The Intake witnessed 2.5-fold jump in average post-GMBA salaries as compared with the pre-GMBA salaries
+-Average CTC: USD 29,233
+-Top recruiters of the season were Microsoft, Unilever, TCS, Cognizant, Wipro, ITC Infotech, HP, HCL, Genpact, Deloitte, Barclays, EandY, Dell, Landmark Group, MandM, Heinz, Dunia Finance, Abbott, Maersk and KPMG. For placement report, please click on  https://cdn2.hubspot.net/hubfs/1969827/GMBA-Placement-Report.pdf </t>
   </si>
   <si>
     <t>Scholarships are awarded based on outstanding academic achievement:
@@ -239,82 +255,100 @@
 - SPJET score above 90th percentile</t>
   </si>
   <si>
-    <t>We provide complete assistance for the placements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Rakesh Shetty, M: +91- 82912 87131 | Email id rakesh.shetty@spjain.org. He handles all the application for the Big Data and Visual Analytics Course. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholarships are awarded for EMBA based on the following:
-- Academic performance
-- Financial background
-- Work experience
-- Leadership, communication and problem-solving skills
-</t>
-  </si>
-  <si>
-    <t>Yes, scholarship is provided to deserving candidates. Kindly refer to following link for complete details on scholarship of PG programs: https://www.spjain.org/programs/postgraduate/scholarships?hsCtaTracking=e66d11a2-8829-4999-91da-2ce447065ed1%7C3b909ce1-4ee9-40f5-89ee-dcc84849fb9d</t>
+    <t xml:space="preserve">You can have a word with Mr. Ranjeet Singh, M: +91- 81412 97131 | Email id ranjeet.singh@spjain.org. He handles all the application for the Bachelor Of Business Administration. </t>
+  </si>
+  <si>
+    <t>Yes ,we  have tied up with certain banks who can grant you loan</t>
+  </si>
+  <si>
+    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
+  </si>
+  <si>
+    <t>You can have a word with Ms. Tejal Dhulla, M: 9987081818|Email id tejal.dhulla@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>Sure we will arrange a call from one of the counsellors who can help you better regarding this.</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>The next intake of MGB is of September 2017 followed by January 2018</t>
+  </si>
+  <si>
+    <t>I would like to inform you that we have our Director- Professional PG Programs Dr. Raja Roy Choudhury, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no 8879489681/8655502525, email id raja.royc@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>3 year full time program</t>
+  </si>
+  <si>
+    <t>I would like to inform you that we have our Admissions Manager Mr. Ashutosh Kulkarni, based out of Mumbai.  He handles all applications for Digital Marketing and Metrics . You can get in touch with him directly. His contact details are tel no +91 9702896668, email id ashutosh.kulkarni@spjain.org . He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>4 year full time program</t>
+  </si>
+  <si>
+    <t>12 months</t>
+  </si>
+  <si>
+    <t>I would like to inform you that we have our Assistant Manager- Professional Programs for EMBA Ms. Nikita Marwaha , based out of our Mumbai Campus. Ms. Nikita handles all applications for the EMBA program. You can get in touch with her directly. Her contact details are tel no 8879866774 email id nikita.marwaha@spjain.org. She would be your point of contact as far as EMBA @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>Yes. Students with verifiable college/university credits can join SP Jain in their second year.</t>
+  </si>
+  <si>
+    <t>We offer Master's of Global Business (MGB), Master's of Global MBA and Executive MBA for postgraduates. Out of these, applying for MGB does not require work experience. We also offer several professional programs such as Big Data and Visual Analytics, Global Family Managed Business, Digital Marketing and Metrics, etc. for undergraduate degree holders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can have a word with Ms. Neha Sikri, M: +91- 9867633315 | Email id Neha.sikri@spjain.org. She handles all the application for the GLuxM. </t>
+  </si>
+  <si>
+    <t>No, laptop is not provided by us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next intake is of July-17 for the DMM program. Applications are open for the same. </t>
+  </si>
+  <si>
+    <t>1. Shortlisting of profiles.
+To be eligible for EMBA, candidate must have the following:
+- Bachelor's Degree
+- 5+ years of work experience 
+- Overall Profile. Candidates will be shortlisted further based on their achievements, academic record, work experience etc.
+2. Evaluation of shortlisted profiles.
+Shortlisted applications will need to go through the evaluation process in person. This involves:
+- Aptitude test 
+- Essay
+- Interview</t>
+  </si>
+  <si>
+    <t>You can have a word with Mr. Rupin Pahwa, M: +91-9687412321| Email id rupin.pahwa@spjain.org.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To enrol in the program, applicants must have:  
+- A Master’s degree from a recognised University or equivalent as recognised by the DBA Committee of S P Jain and
+- At least three years of experience
+An international applicant whose undergraduate and postgraduate degree is not in the medium of English will be required to take an English language test and show an acceptable score prior to course commencement.
+English Language Requirement: IELTS: 6.5/ TOEFL iBT: 70 (minimum)/Pearson Test of English: 60 (minimum)
+The Admission Committee will shortlist candidates based on several criteria, including past academic performance, work experience and other information provided to us. 
+Shortlisted candidates will be called for an interview to test the candidate's capability to complete the course. </t>
   </si>
   <si>
     <t>I would like to inform you that we have our Admissions Manager Mr.Nikhil Gore , based out of Mumbai.  He handles all applications for Fintech  . You can get in touch with him directly. His contact details are tel no +91 9445431213, email id nikhil.gore@spjain.org. He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
   </si>
   <si>
-    <t>Student accommodation is not compulsory. Students can opt to live off-campus on their own.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applicants must have:
-A Bachelor degree or above from a recognised, accredited higher education institution
-0-3 years of experience
-Excellent communication skills and working knowledge of Microsoft Excel is a must
-A reasonable interest to pursue a career in Digital Marketing; good presence on social media sites </t>
-  </si>
-  <si>
-    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
-  </si>
-  <si>
-    <t>No, laptop is not provided by us.</t>
-  </si>
-  <si>
-    <t>Students must have completed high school/secondary school/junior college or some equivalent form of secondary education and placed in the top 25% of their class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full-time placement updates from the batches of 2016 are provided below:
--The Intake witnessed 2.5-fold jump in average post-GMBA salaries as compared with the pre-GMBA salaries
--Average CTC: USD 29,233
--Top recruiters of the season were Microsoft, Unilever, TCS, Cognizant, Wipro, ITC Infotech, HP, HCL, Genpact, Deloitte, Barclays, EandY, Dell, Landmark Group, MandM, Heinz, Dunia Finance, Abbott, Maersk and KPMG. For placement report, please click on  https://cdn2.hubspot.net/hubfs/1969827/GMBA-Placement-Report.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Ranjeet Singh, M: +91- 81412 97131 | Email id ranjeet.singh@spjain.org. He handles all the application for the Bachelor Of Business Administration. </t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Admissions Manager Mr. Ashutosh Kulkarni, based out of Mumbai.  He handles all applications for Digital Marketing and Metrics . You can get in touch with him directly. His contact details are tel no +91 9702896668, email id ashutosh.kulkarni@spjain.org . He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>3 year full time program</t>
+    <t>I would like to inform you that we have our Admissions Manager Mr. Noel Thomas, based out of Mumbai. Mr. Noel handles all applications for MGB and GMBA coming from West India You can get in touch with him directly. His contact details are tel no +91 9322240630, email id noel.thomas@spjain.org. He would be your point of contact as far as PG @ S P Jain is concerned.</t>
   </si>
   <si>
     <t>The next BBA batch will commence on September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">You can have a word with Ms. Neha Sikri, M: +91- 9867633315 | Email id Neha.sikri@spjain.org. She handles all the application for the GLuxM. </t>
-  </si>
-  <si>
-    <t>The next BEC batch will commence on September 2017</t>
-  </si>
-  <si>
-    <t>6 months</t>
-  </si>
-  <si>
-    <t>There will be a merit based scholarship for applicants based on their qualification, work experience, overall profile and performance in the DBA admission interview.</t>
-  </si>
-  <si>
-    <t>12 months</t>
-  </si>
-  <si>
-    <t>8 months</t>
+    <t xml:space="preserve">You can have a word with Mr. Ashutosh Kulkarni, M: +91 9702896668, email id ashutosh.kulkarni@spjain.org. He handles all applications for Retail Management. </t>
   </si>
   <si>
     <t>The next intake of MGB is of July 2017. Applications are open for the same.</t>
+  </si>
+  <si>
+    <t>18 months</t>
   </si>
 </sst>
 </file>
@@ -691,265 +725,265 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>147</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>287</v>
+        <v>595</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>0.427</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>451</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>0.891</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>594</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>0.604</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>469</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>0.516</v>
+        <v>0.5791071428571428</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>356</v>
+        <v>571</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>0.228</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>238</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>0.607</v>
+        <v>0.9223073637488092</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>0.379</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>544</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>0.207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>435</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>0.466</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>0.802</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>492</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>0.33</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>0.291</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>294</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>0.436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -957,604 +991,604 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>483</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>0.306</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>122</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>0.248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>423</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>0.7518636363636364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>0.643</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>99</v>
+        <v>620</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D26">
-        <v>0.524</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>303</v>
+        <v>568</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>0.427</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>0.399</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>537</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>0.578</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>374</v>
+        <v>515</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D32">
-        <v>0.369</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>104</v>
+        <v>530</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>0.2590711760461759</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>289</v>
+        <v>628</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D34">
-        <v>0.572</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>51</v>
+        <v>464</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>0.263</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>448</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>0.79</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>101</v>
+        <v>597</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D37">
-        <v>0.484</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>543</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>0.9163272781125859</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>177</v>
+        <v>613</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>560</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D40">
-        <v>0.267</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>0.76</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>242</v>
+        <v>516</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D42">
-        <v>0.791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>430</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D43">
-        <v>0.834</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D44">
-        <v>0.596</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>588</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D45">
-        <v>0.556</v>
+        <v>0.9223073637488092</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>0.488</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>113</v>
+        <v>598</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D47">
-        <v>0.572</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>429</v>
+        <v>531</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>359</v>
+        <v>502</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D49">
-        <v>0.628</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>554</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>246</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D51">
-        <v>0.417</v>
+        <v>0.2695833333333333</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52">
-        <v>0.429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D53">
-        <v>0.857</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>433</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>0.303</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>466</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D56">
-        <v>0.632</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>530</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D57">
-        <v>0.471</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D58">
-        <v>0.283</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>459</v>
+        <v>603</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D59">
-        <v>0.9163272781125859</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D61">
-        <v>0.442</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>325</v>
+        <v>519</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D62">
-        <v>0.897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63">
-        <v>0.601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1562,27 +1596,27 @@
         <v>567</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D64">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -25,223 +25,211 @@
     <t>Prediction Probability</t>
   </si>
   <si>
-    <t>scholarships criteria for rm program?</t>
-  </si>
-  <si>
-    <t>when does the next batch start of gfmb?</t>
-  </si>
-  <si>
-    <t>what is the admission procedure for bbc?</t>
-  </si>
-  <si>
-    <t>what is fees of gmba  course?</t>
-  </si>
-  <si>
-    <t>how are placement in bbc?</t>
-  </si>
-  <si>
-    <t>when is the next batch starting for bdva?</t>
+    <t>how long is the duration of the bdva program ?</t>
+  </si>
+  <si>
+    <t>fees of fintech?</t>
+  </si>
+  <si>
+    <t>is it possible to have a call with your executives sometime?</t>
+  </si>
+  <si>
+    <t>when does the new batch start of mgb?</t>
+  </si>
+  <si>
+    <t>scholarships criteria for gfmb program?</t>
+  </si>
+  <si>
+    <t>any placement opportunities will be provided ?</t>
+  </si>
+  <si>
+    <t>when is the next intake for fintech?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of bba program ?</t>
+  </si>
+  <si>
+    <t>do you accept transfer students?</t>
+  </si>
+  <si>
+    <t>what is duration of bec course?</t>
+  </si>
+  <si>
+    <t>do you have placement report for bec program?</t>
+  </si>
+  <si>
+    <t>is there any scholarship for the bbc course?</t>
+  </si>
+  <si>
+    <t>which campus is gfmb offered in?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers i can expect for the bbc course?</t>
+  </si>
+  <si>
+    <t>can i know the avg. placement package of emba?</t>
+  </si>
+  <si>
+    <t>when does the next batch start of gmba?</t>
   </si>
   <si>
     <t>what about placement benefit?</t>
   </si>
   <si>
-    <t>does sp jain require students to take an english language test?</t>
-  </si>
-  <si>
-    <t>any placement opportunities will be provided ?</t>
-  </si>
-  <si>
-    <t>what is fees of mgb course?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement in bba?</t>
-  </si>
-  <si>
-    <t>do you have placement report for mgb program?</t>
-  </si>
-  <si>
-    <t>how are placement in gmba  program?</t>
-  </si>
-  <si>
-    <t>do you provide scholarship for bec?</t>
-  </si>
-  <si>
-    <t>is there placements in mgb course?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of bba program ?</t>
-  </si>
-  <si>
-    <t>what is the eligibility criteria for getting admission in bbc?</t>
-  </si>
-  <si>
-    <t>are placements provided ?</t>
-  </si>
-  <si>
-    <t>do you get loan?</t>
-  </si>
-  <si>
-    <t>is there any entrance exam even for the bba course?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of gfmb program ?</t>
+    <t>when is the next batch starting for gfmb?</t>
+  </si>
+  <si>
+    <t>i do not meet the entry requirements, can i still apply?</t>
+  </si>
+  <si>
+    <t>which course is offered in bdva?</t>
+  </si>
+  <si>
+    <t>fees of dba?</t>
+  </si>
+  <si>
+    <t>how long is the duration of the mgb program ?</t>
+  </si>
+  <si>
+    <t>which campus is mgb offered in?</t>
+  </si>
+  <si>
+    <t>can i know about its placement avg. package?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement as part of dmm program ?</t>
+  </si>
+  <si>
+    <t>what is the total amount to be paid for registration of the gfmb course?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement as part of mgb program ?</t>
+  </si>
+  <si>
+    <t>scholarships criteria for dmm program?</t>
+  </si>
+  <si>
+    <t>what is the total amount to be paid for registration of the emba course?</t>
+  </si>
+  <si>
+    <t>when does the new batch start of bec?</t>
   </si>
   <si>
     <t>is loan given?</t>
   </si>
   <si>
-    <t>can you arrange a call with a counsellor?</t>
-  </si>
-  <si>
-    <t>duration of bdva?</t>
-  </si>
-  <si>
-    <t>which campus is mgb offered in?</t>
-  </si>
-  <si>
-    <t>when is the next intake for dba?</t>
-  </si>
-  <si>
-    <t>how long is the duration of bec?</t>
-  </si>
-  <si>
-    <t>can you provide placement report for dmm program?</t>
-  </si>
-  <si>
-    <t>what is duration of bba course?</t>
-  </si>
-  <si>
-    <t>how long is the duration of gmba?</t>
-  </si>
-  <si>
-    <t>how are placement in emba program?</t>
-  </si>
-  <si>
-    <t>can you provide placement records of dba?</t>
-  </si>
-  <si>
-    <t>can you tell me about mba?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers given for rm?</t>
-  </si>
-  <si>
-    <t>can i know the avg. placement package of gfmb?</t>
+    <t>how are placement in rm program?</t>
+  </si>
+  <si>
+    <t>what is the eligibility criteria for getting admission in bba?</t>
+  </si>
+  <si>
+    <t>when does the next batch start of dmm?</t>
+  </si>
+  <si>
+    <t>are there placements in gfmb?</t>
+  </si>
+  <si>
+    <t>scholarships criteria for dba program?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers given for dba?</t>
+  </si>
+  <si>
+    <t>which postgraduation courses do you offer?</t>
+  </si>
+  <si>
+    <t>what is the criteria for getting admission in mgb?</t>
+  </si>
+  <si>
+    <t>may i know the requirement for the scholarships for bbc program?</t>
+  </si>
+  <si>
+    <t>what is the eligibility criteria for getting admission in emba?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement in mgluxm?</t>
+  </si>
+  <si>
+    <t>which postgraduate courses do you offer?</t>
+  </si>
+  <si>
+    <t>how are placement in dba program?</t>
+  </si>
+  <si>
+    <t>duration of rm?</t>
+  </si>
+  <si>
+    <t>may i know the requirement for the scholarships for dmm program?</t>
+  </si>
+  <si>
+    <t>do they provide laptop?</t>
+  </si>
+  <si>
+    <t>what is the total amount to be paid for registration of the bec course?</t>
+  </si>
+  <si>
+    <t>are there placements in rm?</t>
+  </si>
+  <si>
+    <t>what is the admission procedure for gfmb?</t>
+  </si>
+  <si>
+    <t>fees of gfmb?</t>
+  </si>
+  <si>
+    <t>when does the new batch start of rm?</t>
+  </si>
+  <si>
+    <t>are there any scholarships, waivers i can expect for the dba course?</t>
   </si>
   <si>
     <t>when does the new batch start of bdva?</t>
   </si>
   <si>
-    <t>does sp jain provide placement in bdva?</t>
-  </si>
-  <si>
-    <t>which undergraduate courses do you offer?</t>
-  </si>
-  <si>
-    <t>how are placement in mgluxm program?</t>
-  </si>
-  <si>
-    <t>how long is the duration of the gfmb program ?</t>
-  </si>
-  <si>
-    <t>do they provide laptop?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers i can expect for the fintech  course?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of emba program ?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for emba program?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of dmm?</t>
+    <t>is there any entrance exam even for the bbc course?</t>
   </si>
   <si>
     <t>what is the admission procedure for emba?</t>
   </si>
   <si>
-    <t>how long is the duration of the fintech  program ?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of bec program ?</t>
-  </si>
-  <si>
-    <t>what is the criteria for getting admission in dba?</t>
-  </si>
-  <si>
-    <t>do you provide scholarship for bdva?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of dmm program ?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of fintech  program ?</t>
-  </si>
-  <si>
-    <t>what is the total amount to be paid for registration of the mgb course?</t>
-  </si>
-  <si>
-    <t>when is the next intake for bba?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of rm?</t>
-  </si>
-  <si>
-    <t>can you provide placement report for rm program?</t>
-  </si>
-  <si>
-    <t>what is duration of the mgluxm program?</t>
-  </si>
-  <si>
-    <t>when is the next intake for emba?</t>
-  </si>
-  <si>
-    <t>how long is the duration of the emba program ?</t>
-  </si>
-  <si>
-    <t>There will be a merit based scholarship for students based on their qualification, work experience and performance in the aptitude test and personal interview.</t>
-  </si>
-  <si>
-    <t>The next intake is of August-17. Applications are open for the same. Kindly go the following link to apply: https://docs.google.com/forms/d/e/1FAIpQLScjq_wNNNovZ4QV9gVEKv-33mlzC2DBxeBHJGbQs42VfFU9Pw/viewform?c=0andw=1and__hssc=190427892.2.1495486494703and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495476073256.1495486494703.23and__hsfp=1107886181andhsCtaTracking=b4b13990-4ef8-4e30-a8a3-329571ad8273%7C42a77ae5-2e66-4d05-af10-759ecf60fb66</t>
-  </si>
-  <si>
-    <t>Please refer to the following link for information on the same: https://www.spjain.org/programs/undergraduate/bbc/admissions?hsCtaTracking=472995f8-e036-4aba-87cf-11b51f03bccc%7Cbf9da8cc-2723-4f1f-b398-23bc348eb077</t>
-  </si>
-  <si>
-    <t>Approx INR 32,00,000 (plus applicable service taxes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Mahesh Sharma, M: +91-7875874565  | Email id mahesh.sharma@spjain.org. He handles all the application for the Bachelor Of Business Communication. </t>
-  </si>
-  <si>
-    <t>The next intake is of July-17 for Big Data and Visual Analytics program. Applications are open for the same. K</t>
+    <t>what is the eligibility criteria for getting admission in bec?</t>
+  </si>
+  <si>
+    <t>can i know about its placement avg. package for bba?</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>The total fees for the program will be INR 7,50,000 (plus applicable taxes).</t>
+  </si>
+  <si>
+    <t>Sure we will arrange a call from one of the counsellors who can help you better regarding this.</t>
+  </si>
+  <si>
+    <t>The next intake of MGB is of September 2017 followed by January 2018</t>
+  </si>
+  <si>
+    <t>You can have a word with Ms. Tejal Dhulla, M: 9987081818|Email id tejal.dhulla@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
   </si>
   <si>
     <t>We provide complete assistance for the placements</t>
   </si>
   <si>
-    <t>While SP Jain does not require students to take an English language test at the time of admission, it is a mandatory requirement for an Australian student visa to have an English language score. Full details can be found on the Australian Government Department of Immigration and Border Protection website.</t>
-  </si>
-  <si>
-    <t>The total fees of the program is USD 43,825 for the Sept-17 intake. And USD 44,575 for the Jan-18 intake.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full-time placement updates from the Intakes of 2015 that graduated in 2016/17 are provided below:
-- Over 94% of students received internship offers from companies based in Middle East and Southeast Asia. 
-- Average CTC: USD 25,485
-- Top recruiters of the season were Credit Agricole, Deloitte, Genpact,  Smytten,  Fintelix, UBS, Enhance, Bayt.com, Agility Logistics, Al Seer group, Stanley Black and Decker and Kuehne + Nagel. 
-You can download the placement report of 2014-17 batch at below link:
-http://cdn2.hubspot.net/hubfs/1969827/MGB-Placement-Report-of-May14-Intake.pdf?__hssc=190427892.5.1495346778271and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495333324545.1495346778271.15and__hsfp=1107886181andhsCtaTracking=8ddebeec-ee0a-4cbd-8402-8969a656d200%7C55049e8f-8c08-4083-a8e3-0fbdce42ea71
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full-time placement updates from the batches of 2016 are provided below:
--The Intake witnessed 2.5-fold jump in average post-GMBA salaries as compared with the pre-GMBA salaries
--Average CTC: USD 29,233
--Top recruiters of the season were Microsoft, Unilever, TCS, Cognizant, Wipro, ITC Infotech, HP, HCL, Genpact, Deloitte, Barclays, EandY, Dell, Landmark Group, MandM, Heinz, Dunia Finance, Abbott, Maersk and KPMG. For placement report, please click on  https://cdn2.hubspot.net/hubfs/1969827/GMBA-Placement-Report.pdf </t>
+    <t>The next intake is of June-17. Applications are open for the same. Kindly go the following link to apply: https://www.spjain.org/programs/professional/financial-technology/apply?hsCtaTracking=4451c9be-d849-43cd-84fa-5bf595971161%7Cfa02afbd-b2a9-478b-b4b9-ad7af311b47a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can have a word with Mr. Ranjeet Singh, M: +91- 81412 97131 | Email id ranjeet.singh@spjain.org. He handles all the application for the Bachelor Of Business Administration. </t>
+  </si>
+  <si>
+    <t>Yes. Students with verifiable college/university credits can join SP Jain in their second year.</t>
+  </si>
+  <si>
+    <t>3 year full time program</t>
+  </si>
+  <si>
+    <t>I would like to inform you that we have our Admissions Manager Mr. Atharv Kale, based in Mumbai.  Atharv handles all applications for BBA, BBC and BEC coming from West India. You can get in touch with him directly. His contact details are Tel no +91 9920211171, email id: atharv.kale@spjain.org. He would be your point of contact as far as BBA, BBC and BEC @ S P Jain is concerned.</t>
   </si>
   <si>
     <t>Scholarships are awarded based on outstanding academic achievement:
@@ -255,58 +243,72 @@
 - SPJET score above 90th percentile</t>
   </si>
   <si>
-    <t xml:space="preserve">You can have a word with Mr. Ranjeet Singh, M: +91- 81412 97131 | Email id ranjeet.singh@spjain.org. He handles all the application for the Bachelor Of Business Administration. </t>
+    <t>I would like to inform you that we have our Assistant Manager- Professional Programs for EMBA Ms. Nikita Marwaha , based out of our Mumbai Campus. Ms. Nikita handles all applications for the EMBA program. You can get in touch with her directly. Her contact details are tel no 8879866774 email id nikita.marwaha@spjain.org. She would be your point of contact as far as EMBA @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>The next intake of GMBA is of September 2017 followed by January 2018</t>
+  </si>
+  <si>
+    <t>The next intake is of August-17. Applications are open for the same. Kindly go the following link to apply: https://docs.google.com/forms/d/e/1FAIpQLScjq_wNNNovZ4QV9gVEKv-33mlzC2DBxeBHJGbQs42VfFU9Pw/viewform?c=0andw=1and__hssc=190427892.2.1495486494703and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495476073256.1495486494703.23and__hsfp=1107886181andhsCtaTracking=b4b13990-4ef8-4e30-a8a3-329571ad8273%7C42a77ae5-2e66-4d05-af10-759ecf60fb66</t>
+  </si>
+  <si>
+    <t>Yes, you can still apply. However, you will need to have a passport by August 1 in order to apply for a student visa.</t>
+  </si>
+  <si>
+    <t>The fees of the Big Data and Visual Analytics Program is INR 500,000 (Plus applicable service tax)</t>
+  </si>
+  <si>
+    <t>The total fees for the program will be USD 19,500 (approx INR 12-13 lacs)</t>
+  </si>
+  <si>
+    <t>The duration of MGB program is 16 months (This includes a 4 month mandatory internship)</t>
+  </si>
+  <si>
+    <t>The total fees of the program is USD 43,825 for the Sept-17 intake. And USD 44,575 for the Jan-18 intake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-time placement updates from the batches of 2016 are provided below:
+-The Intake witnessed 2.5-fold jump in average post-GMBA salaries as compared with the pre-GMBA salaries
+-Average CTC: USD 29,233
+-Top recruiters of the season were Microsoft, Unilever, TCS, Cognizant, Wipro, ITC Infotech, HP, HCL, Genpact, Deloitte, Barclays, EandY, Dell, Landmark Group, MandM, Heinz, Dunia Finance, Abbott, Maersk and KPMG. For placement report, please click on  https://cdn2.hubspot.net/hubfs/1969827/GMBA-Placement-Report.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholarships are awarded for EMBA based on the following:
+- Academic performance
+- Financial background
+- Work experience
+- Leadership, communication and problem-solving skills
+</t>
+  </si>
+  <si>
+    <t>INR 1,43,000 has to be paid as registration fee for EMBA</t>
+  </si>
+  <si>
+    <t>The next BEC batch will commence on September 2017</t>
   </si>
   <si>
     <t>Yes ,we  have tied up with certain banks who can grant you loan</t>
   </si>
   <si>
-    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
-  </si>
-  <si>
-    <t>You can have a word with Ms. Tejal Dhulla, M: 9987081818|Email id tejal.dhulla@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>Sure we will arrange a call from one of the counsellors who can help you better regarding this.</t>
-  </si>
-  <si>
-    <t>6 months</t>
-  </si>
-  <si>
-    <t>The next intake of MGB is of September 2017 followed by January 2018</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Director- Professional PG Programs Dr. Raja Roy Choudhury, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no 8879489681/8655502525, email id raja.royc@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>3 year full time program</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Admissions Manager Mr. Ashutosh Kulkarni, based out of Mumbai.  He handles all applications for Digital Marketing and Metrics . You can get in touch with him directly. His contact details are tel no +91 9702896668, email id ashutosh.kulkarni@spjain.org . He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>4 year full time program</t>
-  </si>
-  <si>
-    <t>12 months</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Assistant Manager- Professional Programs for EMBA Ms. Nikita Marwaha , based out of our Mumbai Campus. Ms. Nikita handles all applications for the EMBA program. You can get in touch with her directly. Her contact details are tel no 8879866774 email id nikita.marwaha@spjain.org. She would be your point of contact as far as EMBA @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>Yes. Students with verifiable college/university credits can join SP Jain in their second year.</t>
-  </si>
-  <si>
-    <t>We offer Master's of Global Business (MGB), Master's of Global MBA and Executive MBA for postgraduates. Out of these, applying for MGB does not require work experience. We also offer several professional programs such as Big Data and Visual Analytics, Global Family Managed Business, Digital Marketing and Metrics, etc. for undergraduate degree holders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Ms. Neha Sikri, M: +91- 9867633315 | Email id Neha.sikri@spjain.org. She handles all the application for the GLuxM. </t>
-  </si>
-  <si>
-    <t>No, laptop is not provided by us.</t>
+    <t xml:space="preserve">You can have a word with Mr. Ashutosh Kulkarni, M: +91 9702896668, email id ashutosh.kulkarni@spjain.org. He handles all applications for Retail Management. </t>
+  </si>
+  <si>
+    <t>Please refer to the following link for information on the same: https://www.spjain.org/programs/undergraduate/bba/admissions?hsCtaTracking=0339d6c1-a031-450b-8513-fe7f78677a77%7C7be33b32-eacf-47b3-b0bf-36c119dc31bc</t>
   </si>
   <si>
     <t xml:space="preserve">The next intake is of July-17 for the DMM program. Applications are open for the same. </t>
+  </si>
+  <si>
+    <t>There will be a merit based scholarship for students based on their qualification, work experience and performance in the aptitude test and personal interview.</t>
+  </si>
+  <si>
+    <t>At SP Jain, we provide Bahelors of Business Administration (BBA), Bachelors of Business Communication (BBC) and Bachelors of Economics (BEC) as undergraduate courses.</t>
+  </si>
+  <si>
+    <t>The admissions team will shortlist applications based on past academic performance, aptitude test scores, work experience, extracurricular activities and other achievements.
+Shortlisted candidates are required to visit one of the evaluation centres on campus (Dubai, Mumbai, Bengaluru, New Delhi, Kolkata, Singapore or Sydney) for further evaluation. This includes writing essays, analysing case studies and panel interviews. 
+For more details on the same, refer to the below link:
+https://www.spjain.org/programs/postgraduate/mgb/admissions?hsCtaTracking=3df2ab4c-ae43-4373-8b62-f89b8ce8fb42%7C18cd3ba9-2c18-41c5-bf45-38be3e788bd7</t>
   </si>
   <si>
     <t>1. Shortlisting of profiles.
@@ -321,34 +323,28 @@
 - Interview</t>
   </si>
   <si>
-    <t>You can have a word with Mr. Rupin Pahwa, M: +91-9687412321| Email id rupin.pahwa@spjain.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To enrol in the program, applicants must have:  
-- A Master’s degree from a recognised University or equivalent as recognised by the DBA Committee of S P Jain and
-- At least three years of experience
-An international applicant whose undergraduate and postgraduate degree is not in the medium of English will be required to take an English language test and show an acceptable score prior to course commencement.
-English Language Requirement: IELTS: 6.5/ TOEFL iBT: 70 (minimum)/Pearson Test of English: 60 (minimum)
-The Admission Committee will shortlist candidates based on several criteria, including past academic performance, work experience and other information provided to us. 
-Shortlisted candidates will be called for an interview to test the candidate's capability to complete the course. </t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Admissions Manager Mr.Nikhil Gore , based out of Mumbai.  He handles all applications for Fintech  . You can get in touch with him directly. His contact details are tel no +91 9445431213, email id nikhil.gore@spjain.org. He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Admissions Manager Mr. Noel Thomas, based out of Mumbai. Mr. Noel handles all applications for MGB and GMBA coming from West India You can get in touch with him directly. His contact details are tel no +91 9322240630, email id noel.thomas@spjain.org. He would be your point of contact as far as PG @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>The next BBA batch will commence on September 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Ashutosh Kulkarni, M: +91 9702896668, email id ashutosh.kulkarni@spjain.org. He handles all applications for Retail Management. </t>
-  </si>
-  <si>
-    <t>The next intake of MGB is of July 2017. Applications are open for the same.</t>
-  </si>
-  <si>
-    <t>18 months</t>
+    <t>I would like to inform you that we have our Director- Professional PG Programs Dr. Raja Roy Choudhury, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no 8879489681/8655502525, email id raja.royc@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t>No, laptop is not provided by us.</t>
+  </si>
+  <si>
+    <t>The total fees for the program will be INR 14,50,000 (plus applicable taxes).</t>
+  </si>
+  <si>
+    <t>I would like to inform you that we have our Admissions Manager Mr. Ashutosh Kulkarni, based out of Mumbai.  He handles all applications for Digital Marketing and Metrics . You can get in touch with him directly. His contact details are tel no +91 9702896668, email id ashutosh.kulkarni@spjain.org . He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>The next intake is of July-17 for Big Data and Visual Analytics program. Applications are open for the same. K</t>
+  </si>
+  <si>
+    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
+  </si>
+  <si>
+    <t>Students must have completed high school/secondary school/junior college or some equivalent form of secondary education and placed in the top 25% of their class.</t>
   </si>
 </sst>
 </file>
@@ -725,133 +721,133 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>595</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>0.705</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>353</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>260</v>
+        <v>604</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>0.405</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>0.5791071428571428</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>571</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>0.505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>417</v>
+        <v>563</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>0.9223073637488092</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>345</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>0.605</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -860,82 +856,82 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <v>0.36</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>332</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>0.6850000000000001</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>0.805</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>278</v>
+        <v>627</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>200</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>55</v>
+        <v>592</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -944,494 +940,494 @@
         <v>74</v>
       </c>
       <c r="D17">
-        <v>0.53</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>350</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>0.455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.917138668720557</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>177</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
       </c>
       <c r="D21">
-        <v>0.445</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>167</v>
+        <v>631</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
       </c>
       <c r="D22">
-        <v>0.73</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>370</v>
+        <v>518</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>279</v>
+        <v>620</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25">
-        <v>0.595</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>620</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>0.12</v>
+        <v>0.291623015873016</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>568</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D27">
-        <v>0.285</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>380</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>0.66</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>318</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D29">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30">
-        <v>0.455</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>550</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31">
-        <v>0.635</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32">
-        <v>0.855</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>530</v>
+        <v>414</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D33">
-        <v>0.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>628</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34">
-        <v>0.17</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D35">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>448</v>
+        <v>585</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D36">
-        <v>0.855</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>597</v>
+        <v>437</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>290</v>
+        <v>534</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D38">
-        <v>0.6899999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>613</v>
+        <v>527</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39">
-        <v>0.6850000000000001</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>152</v>
+        <v>610</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40">
-        <v>0.795</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D41">
-        <v>0.485</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>516</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>123</v>
+        <v>499</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D43">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>230</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D44">
-        <v>0.58</v>
+        <v>0.7392307692307692</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>264</v>
+        <v>629</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>0.9223073637488092</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D46">
-        <v>0.385</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>598</v>
+        <v>454</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D47">
-        <v>0.305</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>531</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D49">
-        <v>0.325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D50">
-        <v>0.6</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D51">
-        <v>0.2695833333333333</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1439,153 +1435,153 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>241</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D53">
-        <v>0.35</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D54">
-        <v>0.465</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D55">
-        <v>0.58</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>126</v>
+        <v>603</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D56">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D57">
-        <v>0.265</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D58">
-        <v>0.28</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>603</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D59">
-        <v>0.27</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D60">
-        <v>0.835</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>133</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
         <v>85</v>
       </c>
       <c r="D61">
-        <v>0.635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>519</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>233</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1593,30 +1589,30 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>567</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D64">
-        <v>0.21</v>
+        <v>0.917138668720557</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>0.51</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -25,211 +25,235 @@
     <t>Prediction Probability</t>
   </si>
   <si>
-    <t>how long is the duration of the bdva program ?</t>
-  </si>
-  <si>
-    <t>fees of fintech?</t>
+    <t>fees of bec?</t>
+  </si>
+  <si>
+    <t>do you provide scholarship for dba?</t>
+  </si>
+  <si>
+    <t>is there placements in mgb course?</t>
+  </si>
+  <si>
+    <t>how are placement in bba program?</t>
+  </si>
+  <si>
+    <t>when is the next batch starting for dmm?</t>
+  </si>
+  <si>
+    <t>what is the amount towards registration for bdva?</t>
+  </si>
+  <si>
+    <t>what is duration of dmm course?</t>
+  </si>
+  <si>
+    <t>can you arrange a call with a counsellor?</t>
+  </si>
+  <si>
+    <t>how long is the duration of the dba program ?</t>
+  </si>
+  <si>
+    <t>what is the amount towards registration for bec?</t>
+  </si>
+  <si>
+    <t>when does the new batch start of dmm?</t>
+  </si>
+  <si>
+    <t>when does the next batch start of bbc?</t>
+  </si>
+  <si>
+    <t>is there placements in dba program?</t>
+  </si>
+  <si>
+    <t>what is the eligibility criteria for getting admission in dba?</t>
+  </si>
+  <si>
+    <t>is there any entrance exam even for the dmm course?</t>
+  </si>
+  <si>
+    <t>when does the next batch start of dba?</t>
+  </si>
+  <si>
+    <t>what about placement benefit?</t>
+  </si>
+  <si>
+    <t>how are placement in mgluxm program?</t>
+  </si>
+  <si>
+    <t>can you provide placement records of mgb?</t>
+  </si>
+  <si>
+    <t>which campus is bec offered in?</t>
+  </si>
+  <si>
+    <t>when is the next batch starting for mgb?</t>
+  </si>
+  <si>
+    <t>how are placement in dmm program?</t>
+  </si>
+  <si>
+    <t>is there an entrance exam for bbc?</t>
+  </si>
+  <si>
+    <t>scholarships criteria for bec program?</t>
+  </si>
+  <si>
+    <t>do you get loan?</t>
+  </si>
+  <si>
+    <t>can i know the avg. placement package of bdva?</t>
+  </si>
+  <si>
+    <t>do they provide us with a laptop?</t>
+  </si>
+  <si>
+    <t>is there any entrance exam for the mgluxm course?</t>
+  </si>
+  <si>
+    <t>when is the next intake for emba?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement in gfmb?</t>
+  </si>
+  <si>
+    <t>does sp jain require students to take an english language test?</t>
+  </si>
+  <si>
+    <t>duration of fintech?</t>
+  </si>
+  <si>
+    <t>scholarships criteria for bba program?</t>
+  </si>
+  <si>
+    <t>can you provide placement report for mgb program?</t>
+  </si>
+  <si>
+    <t>any placement opportunities will be provided ?</t>
+  </si>
+  <si>
+    <t>do they provide laptop?</t>
+  </si>
+  <si>
+    <t>what is the admission procedure for dba?</t>
+  </si>
+  <si>
+    <t>are there placements in fintech?</t>
+  </si>
+  <si>
+    <t>what is the admission procedure for bbc?</t>
+  </si>
+  <si>
+    <t>how long is the duration of bba?</t>
+  </si>
+  <si>
+    <t>how are placement in rm program?</t>
+  </si>
+  <si>
+    <t>duration of bba?</t>
+  </si>
+  <si>
+    <t>what is the procedure for getting in the bba program?</t>
+  </si>
+  <si>
+    <t>does sp jain provide placement as part of dmm program ?</t>
+  </si>
+  <si>
+    <t>fees of bdva?</t>
+  </si>
+  <si>
+    <t>can i know the avg. placement package of bbc?</t>
+  </si>
+  <si>
+    <t>how are placement in dba program?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of fintech  program ?</t>
+  </si>
+  <si>
+    <t>i don't have a passport yet, can i still apply?</t>
+  </si>
+  <si>
+    <t>are there any scholarships,waivers i can expect for the mgluxm course?</t>
   </si>
   <si>
     <t>is it possible to have a call with your executives sometime?</t>
   </si>
   <si>
-    <t>when does the new batch start of mgb?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for gfmb program?</t>
-  </si>
-  <si>
-    <t>any placement opportunities will be provided ?</t>
-  </si>
-  <si>
-    <t>when is the next intake for fintech?</t>
-  </si>
-  <si>
-    <t>can you share your placement records of bba program ?</t>
-  </si>
-  <si>
-    <t>do you accept transfer students?</t>
-  </si>
-  <si>
-    <t>what is duration of bec course?</t>
-  </si>
-  <si>
-    <t>do you have placement report for bec program?</t>
-  </si>
-  <si>
-    <t>is there any scholarship for the bbc course?</t>
-  </si>
-  <si>
-    <t>which campus is gfmb offered in?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers i can expect for the bbc course?</t>
-  </si>
-  <si>
-    <t>can i know the avg. placement package of emba?</t>
-  </si>
-  <si>
-    <t>when does the next batch start of gmba?</t>
-  </si>
-  <si>
-    <t>what about placement benefit?</t>
-  </si>
-  <si>
-    <t>when is the next batch starting for gfmb?</t>
-  </si>
-  <si>
-    <t>i do not meet the entry requirements, can i still apply?</t>
-  </si>
-  <si>
-    <t>which course is offered in bdva?</t>
-  </si>
-  <si>
-    <t>fees of dba?</t>
-  </si>
-  <si>
-    <t>how long is the duration of the mgb program ?</t>
-  </si>
-  <si>
-    <t>which campus is mgb offered in?</t>
-  </si>
-  <si>
-    <t>can i know about its placement avg. package?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement as part of dmm program ?</t>
-  </si>
-  <si>
-    <t>what is the total amount to be paid for registration of the gfmb course?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement as part of mgb program ?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for dmm program?</t>
-  </si>
-  <si>
-    <t>what is the total amount to be paid for registration of the emba course?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of bec?</t>
-  </si>
-  <si>
-    <t>is loan given?</t>
-  </si>
-  <si>
-    <t>how are placement in rm program?</t>
-  </si>
-  <si>
-    <t>what is the eligibility criteria for getting admission in bba?</t>
-  </si>
-  <si>
-    <t>when does the next batch start of dmm?</t>
-  </si>
-  <si>
-    <t>are there placements in gfmb?</t>
-  </si>
-  <si>
-    <t>scholarships criteria for dba program?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers given for dba?</t>
-  </si>
-  <si>
-    <t>which postgraduation courses do you offer?</t>
-  </si>
-  <si>
-    <t>what is the criteria for getting admission in mgb?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for bbc program?</t>
-  </si>
-  <si>
-    <t>what is the eligibility criteria for getting admission in emba?</t>
-  </si>
-  <si>
-    <t>does sp jain provide placement in mgluxm?</t>
-  </si>
-  <si>
-    <t>which postgraduate courses do you offer?</t>
-  </si>
-  <si>
-    <t>how are placement in dba program?</t>
-  </si>
-  <si>
-    <t>duration of rm?</t>
-  </si>
-  <si>
-    <t>may i know the requirement for the scholarships for dmm program?</t>
-  </si>
-  <si>
-    <t>do they provide laptop?</t>
-  </si>
-  <si>
-    <t>what is the total amount to be paid for registration of the bec course?</t>
-  </si>
-  <si>
-    <t>are there placements in rm?</t>
-  </si>
-  <si>
-    <t>what is the admission procedure for gfmb?</t>
-  </si>
-  <si>
-    <t>fees of gfmb?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of rm?</t>
-  </si>
-  <si>
-    <t>are there any scholarships, waivers i can expect for the dba course?</t>
-  </si>
-  <si>
-    <t>when does the new batch start of bdva?</t>
-  </si>
-  <si>
-    <t>is there any entrance exam even for the bbc course?</t>
-  </si>
-  <si>
-    <t>what is the admission procedure for emba?</t>
-  </si>
-  <si>
-    <t>what is the eligibility criteria for getting admission in bec?</t>
-  </si>
-  <si>
-    <t>can i know about its placement avg. package for bba?</t>
+    <t>when is the next intake for mgb?</t>
+  </si>
+  <si>
+    <t>can i know the avg. placement package of fintech?</t>
+  </si>
+  <si>
+    <t>what is fees of gfmb course?</t>
+  </si>
+  <si>
+    <t>fees of mgluxm?</t>
+  </si>
+  <si>
+    <t>can you share your placement records of the mgb program ?</t>
+  </si>
+  <si>
+    <t>is there any entrance exam even for the bdva course?</t>
+  </si>
+  <si>
+    <t>The total fees for the program will be INR 11,90,975 (Plus applicable service tax)</t>
+  </si>
+  <si>
+    <t>There will be a merit based scholarship for applicants based on their qualification, work experience, overall profile and performance in the DBA admission interview.</t>
+  </si>
+  <si>
+    <t>We provide complete assistance for the placements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can have a word with Mr. Rxxxxx Sxxxxxx, M: +91-xxxxxxxxxx | Email id rxxxxx.sxxxxx@spjain.org. He handles all the application for the Bachelor Of Business Administration. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next intake is of July-17 for the DMM program. Applications are open for the same. </t>
+  </si>
+  <si>
+    <t>INR 55,000</t>
   </si>
   <si>
     <t>6 months</t>
   </si>
   <si>
-    <t>The total fees for the program will be INR 7,50,000 (plus applicable taxes).</t>
-  </si>
-  <si>
     <t>Sure we will arrange a call from one of the counsellors who can help you better regarding this.</t>
   </si>
   <si>
-    <t>The next intake of MGB is of September 2017 followed by January 2018</t>
-  </si>
-  <si>
-    <t>You can have a word with Ms. Tejal Dhulla, M: 9987081818|Email id tejal.dhulla@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>We provide complete assistance for the placements</t>
-  </si>
-  <si>
-    <t>The next intake is of June-17. Applications are open for the same. Kindly go the following link to apply: https://www.spjain.org/programs/professional/financial-technology/apply?hsCtaTracking=4451c9be-d849-43cd-84fa-5bf595971161%7Cfa02afbd-b2a9-478b-b4b9-ad7af311b47a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Ranjeet Singh, M: +91- 81412 97131 | Email id ranjeet.singh@spjain.org. He handles all the application for the Bachelor Of Business Administration. </t>
-  </si>
-  <si>
-    <t>Yes. Students with verifiable college/university credits can join SP Jain in their second year.</t>
-  </si>
-  <si>
-    <t>3 year full time program</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Admissions Manager Mr. Atharv Kale, based in Mumbai.  Atharv handles all applications for BBA, BBC and BEC coming from West India. You can get in touch with him directly. His contact details are Tel no +91 9920211171, email id: atharv.kale@spjain.org. He would be your point of contact as far as BBA, BBC and BEC @ S P Jain is concerned.</t>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>﻿I would like to inform you that we have our Admissions Manager Mr. Axxxxx Kxxxx, based in Mumbai.  Axxxxx handles all applications for BBA, BBC and BEC coming from your region. You can get in touch with him directly. His contact details are Tel no +91 xxxxxxxxxx, email id: axxxxx.kxxxxx@spjain.org. He would be your point of contact as far as BBA, BBC and BEC @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>The next BBC batch will commence on September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To enrol in the program, applicants must have:  
+- A Master’s degree from a recognised University or equivalent as recognised by the DBA Committee of S P Jain and
+- At least three years of experience
+An international applicant whose undergraduate and postgraduate degree is not in the medium of English will be required to take an English language test and show an acceptable score prior to course commencement.
+English Language Requirement: IELTS: 6.5/ TOEFL iBT: 70 (minimum)/Pearson Test of English: 60 (minimum)
+The Admission Committee will shortlist candidates based on several criteria, including past academic performance, work experience and other information provided to us. 
+Shortlisted candidates will be called for an interview to test the candidate's capability to complete the course. </t>
+  </si>
+  <si>
+    <t>Appear for further evaluation comprising written tests (test of reasoning, numerical ability, english comprehension), followed by 2 round of interviews to understand the statement of purpose of the student to join the program</t>
+  </si>
+  <si>
+    <t>﻿I would like to inform you that we have our Director- Professional PG Programs Dr. Rxxxxxx Rxxxx Cxxxxx, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no xxxxxxxxxx/xxxxxxxxxx, email id xxxxxxx.xxxxxxx@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>﻿I would like to inform you that we have our Admissions Manager Ms. Nxxxx Sxxxxx , based out of Mumbai.  She handles all applications for MGLuxM. You can get in touch with her directly. Her contact details are tel no +91 xxxxxxxxxx, email id Nxxxxx.sxxxxx@spjain.org. She would be your point of contact as far as MGLuxM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-time placement updates from the Intakes of 2015 that graduated in 2016/17 are provided below:
+- Over 94% of students received internship offers from companies based in Middle East and Southeast Asia. 
+- Average CTC: USD 25,485
+- Top recruiters of the season were Credit Agricole, Deloitte, Genpact,  Smytten,  Fintelix, UBS, Enhance, Bayt.com, Agility Logistics, Al Seer group, Stanley Black &amp; Decker and Kuehne + Nagel. 
+You can download the placement report of 2014-17 batch at below link:
+http://cdn2.hubspot.net/hubfs/1969827/MGB-Placement-Report-of-May14-Intake.pdf?__hssc=190427892.5.1495346778271&amp;__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495333324545.1495346778271.15&amp;__hsfp=1107886181&amp;hsCtaTracking=8ddebeec-ee0a-4cbd-8402-8969a656d200%7C55049e8f-8c08-4083-a8e3-0fbdce42ea71
+</t>
   </si>
   <si>
     <t>Scholarships are awarded based on outstanding academic achievement:
@@ -243,108 +267,81 @@
 - SPJET score above 90th percentile</t>
   </si>
   <si>
-    <t>I would like to inform you that we have our Assistant Manager- Professional Programs for EMBA Ms. Nikita Marwaha , based out of our Mumbai Campus. Ms. Nikita handles all applications for the EMBA program. You can get in touch with her directly. Her contact details are tel no 8879866774 email id nikita.marwaha@spjain.org. She would be your point of contact as far as EMBA @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>The next intake of GMBA is of September 2017 followed by January 2018</t>
-  </si>
-  <si>
-    <t>The next intake is of August-17. Applications are open for the same. Kindly go the following link to apply: https://docs.google.com/forms/d/e/1FAIpQLScjq_wNNNovZ4QV9gVEKv-33mlzC2DBxeBHJGbQs42VfFU9Pw/viewform?c=0andw=1and__hssc=190427892.2.1495486494703and__hstc=190427892.33e733658ed7095adf355d6d87809a81.1478335842661.1495476073256.1495486494703.23and__hsfp=1107886181andhsCtaTracking=b4b13990-4ef8-4e30-a8a3-329571ad8273%7C42a77ae5-2e66-4d05-af10-759ecf60fb66</t>
+    <t>The next intake of MGB is of September 2017 followed by January 2018</t>
+  </si>
+  <si>
+    <t>﻿I would like to inform you that we have our Admissions Manager Mr. Axxxxxx Kxxxxxx, based out of Mumbai.  He handles all applications for Digital Marketing and Metrics . You can get in touch with him directly. His contact details are tel no +91 9xxxxxxxxx, email id axxxxxx.kxxxxxx@spjain.org . He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
+  </si>
+  <si>
+    <t>Yes ,we  have tied up with certain banks who can grant you loan</t>
+  </si>
+  <si>
+    <t>﻿You can have a word with Mr. Rxxxxx Sxxxx, M: +91- xxxxxxx131 | Email id rxxxxx.sxxxx@spjain.org. He handles all the application for the Big Data and Visual Analytics Course.</t>
+  </si>
+  <si>
+    <t>No, laptop is not provided by us.</t>
+  </si>
+  <si>
+    <t>No, there is one interview round, based on interview round we will be shortlisting your profile.</t>
+  </si>
+  <si>
+    <t>The next intake of MGB is of July 2017. Applications are open for the same.</t>
+  </si>
+  <si>
+    <t>﻿You can have a word with Ms. Txxxxx Dxxxx, M: xxxxxxxxxx|Email id xxxxx.xxxxxx@spjain.org. She handles all the application for the GFMB. She would be your point of contact as far as GFMB @ S P Jain is concerned.</t>
+  </si>
+  <si>
+    <t>While SP Jain does not require students to take an English language test at the time of admission, it is a mandatory requirement for an Australian student visa to have an English language score. Full details can be found on the Australian Government Department of Immigration and Border Protection website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To apply for the program please:
+ Submit an online application form along with the following supporting documents like:
+- CV/Resume
+- University degree transcripts
+The Admission Committee will shortlist candidates based on several criteria, including past academic performance, work experience and other information provided to us. 
+Shortlisted candidates will be called for an interview to test the candidate's capability to complete the course. </t>
+  </si>
+  <si>
+    <t>Please refer to the following link for information on the same: https://www.spjain.org/programs/undergraduate/bbc/admissions?hsCtaTracking=472995f8-e036-4aba-87cf-11b51f03bccc%7Cbf9da8cc-2723-4f1f-b398-23bc348eb077</t>
+  </si>
+  <si>
+    <t>4 year full time program</t>
+  </si>
+  <si>
+    <t>﻿You can have a word with Mr. Axxxxxx Kxxxxxx, M: +91 xxxxxxxxxx, email id axxxxxxx.kxxxxxx@spjain.org. He handles all applications for Retail Management.</t>
+  </si>
+  <si>
+    <t>Please refer to the following link for information on the same: https://www.spjain.org/programs/undergraduate/bba/admissions?hsCtaTracking=0339d6c1-a031-450b-8513-fe7f78677a77%7C7be33b32-eacf-47b3-b0bf-36c119dc31bc</t>
+  </si>
+  <si>
+    <t>The fees of the Big Data &amp; Visual Analytics Program is INR 500,000 (Plus applicable service tax)</t>
+  </si>
+  <si>
+    <t>﻿You can have a word with Mr. Mxxxxx Sxxxxx, M: +91-xxxxxxxxxx  | Email id mxxxx.sxxxx@spjain.org. He handles all the application for the Bachelor Of Business Communication.</t>
+  </si>
+  <si>
+    <t>﻿I would like to inform you that we have our Admissions Manager Mr.Nxxxxxx Gxxxx , based out of Mumbai.  He handles all applications for Fintech  . You can get in touch with him directly. His contact details are tel no +91 xxxxxxxxxx, email id nxxxx.gxxxx@spjain.org. He would be your point of contact as far as Fintech @ S P Jain is concerned.</t>
   </si>
   <si>
     <t>Yes, you can still apply. However, you will need to have a passport by August 1 in order to apply for a student visa.</t>
   </si>
   <si>
-    <t>The fees of the Big Data and Visual Analytics Program is INR 500,000 (Plus applicable service tax)</t>
-  </si>
-  <si>
-    <t>The total fees for the program will be USD 19,500 (approx INR 12-13 lacs)</t>
-  </si>
-  <si>
-    <t>The duration of MGB program is 16 months (This includes a 4 month mandatory internship)</t>
-  </si>
-  <si>
-    <t>The total fees of the program is USD 43,825 for the Sept-17 intake. And USD 44,575 for the Jan-18 intake.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full-time placement updates from the batches of 2016 are provided below:
--The Intake witnessed 2.5-fold jump in average post-GMBA salaries as compared with the pre-GMBA salaries
--Average CTC: USD 29,233
--Top recruiters of the season were Microsoft, Unilever, TCS, Cognizant, Wipro, ITC Infotech, HP, HCL, Genpact, Deloitte, Barclays, EandY, Dell, Landmark Group, MandM, Heinz, Dunia Finance, Abbott, Maersk and KPMG. For placement report, please click on  https://cdn2.hubspot.net/hubfs/1969827/GMBA-Placement-Report.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholarships are awarded for EMBA based on the following:
-- Academic performance
-- Financial background
-- Work experience
-- Leadership, communication and problem-solving skills
-</t>
-  </si>
-  <si>
-    <t>INR 1,43,000 has to be paid as registration fee for EMBA</t>
-  </si>
-  <si>
-    <t>The next BEC batch will commence on September 2017</t>
-  </si>
-  <si>
-    <t>Yes ,we  have tied up with certain banks who can grant you loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can have a word with Mr. Ashutosh Kulkarni, M: +91 9702896668, email id ashutosh.kulkarni@spjain.org. He handles all applications for Retail Management. </t>
-  </si>
-  <si>
-    <t>Please refer to the following link for information on the same: https://www.spjain.org/programs/undergraduate/bba/admissions?hsCtaTracking=0339d6c1-a031-450b-8513-fe7f78677a77%7C7be33b32-eacf-47b3-b0bf-36c119dc31bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next intake is of July-17 for the DMM program. Applications are open for the same. </t>
-  </si>
-  <si>
-    <t>There will be a merit based scholarship for students based on their qualification, work experience and performance in the aptitude test and personal interview.</t>
-  </si>
-  <si>
-    <t>At SP Jain, we provide Bahelors of Business Administration (BBA), Bachelors of Business Communication (BBC) and Bachelors of Economics (BEC) as undergraduate courses.</t>
-  </si>
-  <si>
-    <t>The admissions team will shortlist applications based on past academic performance, aptitude test scores, work experience, extracurricular activities and other achievements.
-Shortlisted candidates are required to visit one of the evaluation centres on campus (Dubai, Mumbai, Bengaluru, New Delhi, Kolkata, Singapore or Sydney) for further evaluation. This includes writing essays, analysing case studies and panel interviews. 
-For more details on the same, refer to the below link:
-https://www.spjain.org/programs/postgraduate/mgb/admissions?hsCtaTracking=3df2ab4c-ae43-4373-8b62-f89b8ce8fb42%7C18cd3ba9-2c18-41c5-bf45-38be3e788bd7</t>
-  </si>
-  <si>
-    <t>1. Shortlisting of profiles.
-To be eligible for EMBA, candidate must have the following:
-- Bachelor's Degree
-- 5+ years of work experience 
-- Overall Profile. Candidates will be shortlisted further based on their achievements, academic record, work experience etc.
-2. Evaluation of shortlisted profiles.
-Shortlisted applications will need to go through the evaluation process in person. This involves:
-- Aptitude test 
-- Essay
-- Interview</t>
-  </si>
-  <si>
-    <t>I would like to inform you that we have our Director- Professional PG Programs Dr. Raja Roy Choudhury, based out of Mumbai.  He handles all applications for DMM/DBA. You can get in touch with him directly. His contact details are tel no 8879489681/8655502525, email id raja.royc@spjain.org  . He would be your point of contact as far as DBA/DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>8 months</t>
-  </si>
-  <si>
-    <t>No, laptop is not provided by us.</t>
+    <t>Yes, we provide scholarship for deserving candidates. You can find complete information on the same at the following link - https://www.spjain.org/programs/postgraduate/mgluxm</t>
+  </si>
+  <si>
+    <t>﻿I would like to inform you that we have our Admissions Manager Mr.Nxxxxxx Gxxxx , based out of Mumbai.  He handles all applications for Fintech  . You can get in touch with him directly. His contact details are tel no +91 xxxxxxxxxx, email id nxxxx.gxxxx@spjain.org. He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
   </si>
   <si>
     <t>The total fees for the program will be INR 14,50,000 (plus applicable taxes).</t>
   </si>
   <si>
-    <t>I would like to inform you that we have our Admissions Manager Mr. Ashutosh Kulkarni, based out of Mumbai.  He handles all applications for Digital Marketing and Metrics . You can get in touch with him directly. His contact details are tel no +91 9702896668, email id ashutosh.kulkarni@spjain.org . He would be your point of contact as far as DMM @ S P Jain is concerned.</t>
-  </si>
-  <si>
-    <t>The next intake is of July-17 for Big Data and Visual Analytics program. Applications are open for the same. K</t>
-  </si>
-  <si>
-    <t>Yes, students need to take either the SAT or the SP Jain Entrance Test (SPJET).</t>
-  </si>
-  <si>
-    <t>Students must have completed high school/secondary school/junior college or some equivalent form of secondary education and placed in the top 25% of their class.</t>
+    <t>The fee breakup comprises of a total of 9600 euros, payable in Dubai, and INR 4,60,000, payable in India.</t>
+  </si>
+  <si>
+    <t>Yes,there is a one-hour aptitude test with numerical, quantitative reasoning, mathematics and statistical components.</t>
   </si>
 </sst>
 </file>
@@ -721,511 +718,511 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>0.48</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>0.325</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>604</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>0.315</v>
+        <v>0.57125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>450</v>
+        <v>571</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>0.465</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>563</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>0.285</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>0.615</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>0.515</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>107</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>0.775</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>76</v>
+        <v>586</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>627</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>0.48</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>78</v>
+        <v>519</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>511</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>0.48</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>0.615</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.918236777916172</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>459</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>0.917138668720557</v>
+        <v>0.7216666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
       </c>
       <c r="D20">
-        <v>0.545</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>63</v>
+        <v>622</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>76</v>
       </c>
       <c r="D21">
-        <v>0.385</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>631</v>
+        <v>577</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
       </c>
       <c r="D22">
-        <v>0.215</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>518</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
       </c>
       <c r="D23">
-        <v>0.285</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>79</v>
       </c>
       <c r="D24">
-        <v>0.645</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>620</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>0.14</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26">
-        <v>0.291623015873016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D28">
-        <v>0.295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>0.845</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>317</v>
+        <v>566</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31">
-        <v>0.185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>601</v>
+        <v>443</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>0.275</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>194</v>
+        <v>391</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>0.91</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>0.545</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>585</v>
+        <v>492</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D36">
-        <v>0.575</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>437</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>0.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>534</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1234,385 +1231,385 @@
         <v>82</v>
       </c>
       <c r="D38">
-        <v>0.415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>527</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>0.29</v>
+        <v>0.918236777916172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>0.415</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>199</v>
+        <v>395</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D41">
-        <v>0.27</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>85</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D42">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>499</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43">
-        <v>0.45</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D44">
-        <v>0.7392307692307692</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>629</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45">
-        <v>0.415</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46">
-        <v>0.88</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D47">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D48">
-        <v>0.445</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>537</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.4089246031746033</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>98</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D50">
-        <v>0.225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>342</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D51">
-        <v>0.385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>127</v>
+        <v>535</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53">
-        <v>0.835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D54">
-        <v>0.4</v>
+        <v>0.3222261904761905</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55">
-        <v>0.385</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>603</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D57">
-        <v>0.245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>597</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>0.295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>75</v>
+        <v>564</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D59">
-        <v>0.415</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>502</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D60">
-        <v>0.345</v>
+        <v>0.224186507936508</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62">
-        <v>0.525</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>495</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>0.917138668720557</v>
+        <v>0.918236777916172</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D65">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
